--- a/epigenetic_expression_matrix.xlsx
+++ b/epigenetic_expression_matrix.xlsx
@@ -392,7 +392,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADSS;ADSS</t>
+          <t>ADSS</t>
         </is>
       </c>
       <c r="B2">
@@ -432,7 +432,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3;ATXN3</t>
+          <t>ATXN3</t>
         </is>
       </c>
       <c r="B6">
@@ -452,7 +452,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C1orf198;C1orf198</t>
+          <t>C1orf198</t>
         </is>
       </c>
       <c r="B8">
@@ -462,7 +462,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CAPZA1;ST7L;ST7L;ST7L;ST7L</t>
+          <t>CAPZA1</t>
         </is>
       </c>
       <c r="B9">
@@ -482,7 +482,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CCL4L1;CCL4L2</t>
+          <t>CCL4L1</t>
         </is>
       </c>
       <c r="B11">
@@ -492,7 +492,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CD59;CD59;CD59;CD59</t>
+          <t>CD59</t>
         </is>
       </c>
       <c r="B12">
@@ -512,7 +512,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CREB1;CREB1</t>
+          <t>CREB1</t>
         </is>
       </c>
       <c r="B14">
@@ -522,7 +522,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CYR61;CYR61</t>
+          <t>CYR61</t>
         </is>
       </c>
       <c r="B15">
@@ -532,7 +532,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DAD1;DAD1</t>
+          <t>DAD1</t>
         </is>
       </c>
       <c r="B16">
@@ -542,7 +542,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DHX30;DHX30;DHX30;DHX30</t>
+          <t>DHX30</t>
         </is>
       </c>
       <c r="B17">
@@ -552,7 +552,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DNAJC5G;DNAJC5G</t>
+          <t>DNAJC5G</t>
         </is>
       </c>
       <c r="B18">
@@ -562,7 +562,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FAM100A;FAM100A</t>
+          <t>FAM100A</t>
         </is>
       </c>
       <c r="B19">
@@ -582,7 +582,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FAM96B;FAM96B;CES2;CES2</t>
+          <t>FAM96B</t>
         </is>
       </c>
       <c r="B21">
@@ -592,7 +592,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FGFR1OP;FGFR1OP</t>
+          <t>FGFR1OP</t>
         </is>
       </c>
       <c r="B22">
@@ -602,7 +602,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FLI1;FLI1</t>
+          <t>FLI1</t>
         </is>
       </c>
       <c r="B23">
@@ -622,7 +622,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GOLSYN;GOLSYN;GOLSYN;GOLSYN;GOLSYN;GOLSYN;GOLSYN;GOLSYN;GOLSYN;GOLSYN;GOLSYN;GOLSYN;GOLSYN;GOLSYN;GOLSYN;GOLSYN;GOLSYN</t>
+          <t>GOLSYN</t>
         </is>
       </c>
       <c r="B25">
@@ -632,7 +632,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HLA-B;HLA-B</t>
+          <t>HLA-B</t>
         </is>
       </c>
       <c r="B26">
@@ -642,7 +642,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>JDP2;JDP2;JDP2;JDP2</t>
+          <t>JDP2</t>
         </is>
       </c>
       <c r="B27">
@@ -682,7 +682,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LOC100130872;LOC100130872-SPON2</t>
+          <t>LOC100130872</t>
         </is>
       </c>
       <c r="B31">
@@ -712,7 +712,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MAD1L1;MAD1L1;MAD1L1</t>
+          <t>MAD1L1</t>
         </is>
       </c>
       <c r="B34">
@@ -725,7 +725,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MIR551B;C3orf50</t>
+          <t>MIR551B</t>
         </is>
       </c>
       <c r="B35">
@@ -735,7 +735,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MUC4;MUC4;MUC4</t>
+          <t>MUC4</t>
         </is>
       </c>
       <c r="B36">
@@ -758,7 +758,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NEK11;NEK11;NEK11;ASTE1</t>
+          <t>NEK11</t>
         </is>
       </c>
       <c r="B38">
@@ -781,7 +781,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NIP7;COG8</t>
+          <t>NIP7</t>
         </is>
       </c>
       <c r="B40">
@@ -814,7 +814,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PDE7A;PDE7A</t>
+          <t>PDE7A</t>
         </is>
       </c>
       <c r="B43">
@@ -884,7 +884,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PTPRJ;PTPRJ</t>
+          <t>PTPRJ</t>
         </is>
       </c>
       <c r="B50">
@@ -894,7 +894,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PWWP2B;PWWP2B</t>
+          <t>PWWP2B</t>
         </is>
       </c>
       <c r="B51">
@@ -914,7 +914,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RCC2;RCC2</t>
+          <t>RCC2</t>
         </is>
       </c>
       <c r="B53">
@@ -924,7 +924,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RFC2;RFC2</t>
+          <t>RFC2</t>
         </is>
       </c>
       <c r="B54">
@@ -934,7 +934,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RFC4;RFC4;RFC4</t>
+          <t>RFC4</t>
         </is>
       </c>
       <c r="B55">
@@ -984,7 +984,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RPS18;VPS52</t>
+          <t>RPS18</t>
         </is>
       </c>
       <c r="B60">
@@ -994,7 +994,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RPS6KA5;RPS6KA5</t>
+          <t>RPS6KA5</t>
         </is>
       </c>
       <c r="B61">
@@ -1074,7 +1074,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TSC22D1;TSC22D1</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="B69">
@@ -1124,7 +1124,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ZNF557;ZNF557;ZNF557</t>
+          <t>ZNF557</t>
         </is>
       </c>
       <c r="B74">
@@ -1154,7 +1154,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ABHD2;ABHD2;ABHD2;ABHD2</t>
+          <t>ABHD2</t>
         </is>
       </c>
       <c r="C77">
@@ -1164,7 +1164,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ABR;ABR</t>
+          <t>ABR</t>
         </is>
       </c>
       <c r="C78">
@@ -1194,7 +1194,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AFTPH;AFTPH;AFTPH</t>
+          <t>AFTPH</t>
         </is>
       </c>
       <c r="C81">
@@ -1204,7 +1204,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>AGAP1;AGAP1</t>
+          <t>AGAP1</t>
         </is>
       </c>
       <c r="C82">
@@ -1217,7 +1217,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>AGAP3;AGAP3</t>
+          <t>AGAP3</t>
         </is>
       </c>
       <c r="C83">
@@ -1257,7 +1257,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ANKRD16;ANKRD16;ANKRD16;FBXO18</t>
+          <t>ANKRD16</t>
         </is>
       </c>
       <c r="C87">
@@ -1277,7 +1277,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ANKS1B;ANKS1B;ANKS1B</t>
+          <t>ANKS1B</t>
         </is>
       </c>
       <c r="C89">
@@ -1287,7 +1287,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>AP2B1;AP2B1</t>
+          <t>AP2B1</t>
         </is>
       </c>
       <c r="C90">
@@ -1317,7 +1317,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ARHGEF7;ARHGEF7;ARHGEF7;ARHGEF7;ARHGEF7</t>
+          <t>ARHGEF7</t>
         </is>
       </c>
       <c r="C93">
@@ -1337,7 +1337,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ARSB;ARSB</t>
+          <t>ARSB</t>
         </is>
       </c>
       <c r="C95">
@@ -1367,7 +1367,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ATG4D;MIR1238</t>
+          <t>ATG4D</t>
         </is>
       </c>
       <c r="C98">
@@ -1377,7 +1377,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ATP2A1;ATP2A1</t>
+          <t>ATP2A1</t>
         </is>
       </c>
       <c r="C99">
@@ -1430,7 +1430,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCAP29;BCAP29;BCAP29</t>
+          <t>BCAP29</t>
         </is>
       </c>
       <c r="C104">
@@ -1440,7 +1440,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCAT2;BCAT2;BCAT2;BCAT2</t>
+          <t>BCAT2</t>
         </is>
       </c>
       <c r="C105">
@@ -1460,7 +1460,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BEST1;BEST1;BEST1;BEST1</t>
+          <t>BEST1</t>
         </is>
       </c>
       <c r="C107">
@@ -1510,7 +1510,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>C10orf41;C10orf41</t>
+          <t>C10orf41</t>
         </is>
       </c>
       <c r="C112">
@@ -1540,7 +1540,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>C14orf80;C14orf80;C14orf80</t>
+          <t>C14orf80</t>
         </is>
       </c>
       <c r="C115">
@@ -1570,7 +1570,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>C21orf33;C21orf33</t>
+          <t>C21orf33</t>
         </is>
       </c>
       <c r="C118">
@@ -1640,7 +1640,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CACNA1A;CACNA1A</t>
+          <t>CACNA1A</t>
         </is>
       </c>
       <c r="C125">
@@ -1653,7 +1653,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CACNA1H;CACNA1H</t>
+          <t>CACNA1H</t>
         </is>
       </c>
       <c r="C126">
@@ -1663,7 +1663,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CALHM2;CALHM2</t>
+          <t>CALHM2</t>
         </is>
       </c>
       <c r="C127">
@@ -1683,7 +1683,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CARD14;CARD14</t>
+          <t>CARD14</t>
         </is>
       </c>
       <c r="C129">
@@ -1703,7 +1703,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CASZ1;CASZ1</t>
+          <t>CASZ1</t>
         </is>
       </c>
       <c r="C131">
@@ -1723,7 +1723,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CCDC14;CCDC14</t>
+          <t>CCDC14</t>
         </is>
       </c>
       <c r="C133">
@@ -1753,7 +1753,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CCNT1;LOC144438</t>
+          <t>CCNT1</t>
         </is>
       </c>
       <c r="C136">
@@ -1773,7 +1773,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CDKN1C;CDKN1C;CDKN1C</t>
+          <t>CDKN1C</t>
         </is>
       </c>
       <c r="C138">
@@ -1793,7 +1793,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CHI3L2;CHI3L2</t>
+          <t>CHI3L2</t>
         </is>
       </c>
       <c r="C140">
@@ -1803,7 +1803,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CHID1;CHID1;CHID1;CHID1;CHID1</t>
+          <t>CHID1</t>
         </is>
       </c>
       <c r="C141">
@@ -1823,7 +1823,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CLSTN1;CLSTN1</t>
+          <t>CLSTN1</t>
         </is>
       </c>
       <c r="C143">
@@ -1876,7 +1876,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CRELD1;CRELD1;CRELD1;CRELD1</t>
+          <t>CRELD1</t>
         </is>
       </c>
       <c r="C148">
@@ -1936,7 +1936,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CYorf15A;CYorf15A</t>
+          <t>CYorf15A</t>
         </is>
       </c>
       <c r="C154">
@@ -1976,7 +1976,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>DDX5;CCDC45;DDX5</t>
+          <t>DDX5</t>
         </is>
       </c>
       <c r="C158">
@@ -1996,7 +1996,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>DFNA5;DFNA5;DFNA5</t>
+          <t>DFNA5</t>
         </is>
       </c>
       <c r="C160">
@@ -2006,7 +2006,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>DFNB31;DFNB31</t>
+          <t>DFNB31</t>
         </is>
       </c>
       <c r="C161">
@@ -2026,7 +2026,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>DNAH3;TMEM159</t>
+          <t>DNAH3</t>
         </is>
       </c>
       <c r="C163">
@@ -2046,7 +2046,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>DNASE2B;DNASE2B</t>
+          <t>DNASE2B</t>
         </is>
       </c>
       <c r="C165">
@@ -2066,7 +2066,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>DSN1;DSN1;DSN1;DSN1;DSN1</t>
+          <t>DSN1</t>
         </is>
       </c>
       <c r="C167">
@@ -2076,7 +2076,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>DUS3L;DUS3L</t>
+          <t>DUS3L</t>
         </is>
       </c>
       <c r="C168">
@@ -2119,7 +2119,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ECE1;ECE1;ECE1;ECE1</t>
+          <t>ECE1</t>
         </is>
       </c>
       <c r="C172">
@@ -2129,7 +2129,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>EGFL7;EGFL7;MIR126</t>
+          <t>EGFL7</t>
         </is>
       </c>
       <c r="C173">
@@ -2159,7 +2159,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ELAVL3;ELAVL3</t>
+          <t>ELAVL3</t>
         </is>
       </c>
       <c r="C176">
@@ -2169,7 +2169,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ELN;ELN;ELN;ELN;ELN</t>
+          <t>ELN</t>
         </is>
       </c>
       <c r="C177">
@@ -2199,7 +2199,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>EPB42;EPB42</t>
+          <t>EPB42</t>
         </is>
       </c>
       <c r="C180">
@@ -2272,7 +2272,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>EXOSC10;EXOSC10</t>
+          <t>EXOSC10</t>
         </is>
       </c>
       <c r="C187">
@@ -2322,7 +2322,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>FLJ16779;NKAIN4</t>
+          <t>FLJ16779</t>
         </is>
       </c>
       <c r="C192">
@@ -2352,7 +2352,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>GABRA5;GABRA5;GABRA5</t>
+          <t>GABRA5</t>
         </is>
       </c>
       <c r="C195">
@@ -2382,7 +2382,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>GCK;GCK;GCK</t>
+          <t>GCK</t>
         </is>
       </c>
       <c r="C198">
@@ -2495,7 +2495,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>GTF2IRD1;GTF2IRD1</t>
+          <t>GTF2IRD1</t>
         </is>
       </c>
       <c r="C209">
@@ -2525,7 +2525,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>HCG18;TRIM39;HCG18;TRIM39</t>
+          <t>HCG18</t>
         </is>
       </c>
       <c r="C212">
@@ -2548,7 +2548,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>HEMGN;HEMGN</t>
+          <t>HEMGN</t>
         </is>
       </c>
       <c r="C214">
@@ -2558,7 +2558,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>HLA-J;NCRNA00171</t>
+          <t>HLA-J</t>
         </is>
       </c>
       <c r="C215">
@@ -2578,7 +2578,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>IL12RB2;IL12RB2</t>
+          <t>IL12RB2</t>
         </is>
       </c>
       <c r="C217">
@@ -2588,7 +2588,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>INPP4B;INPP4B</t>
+          <t>INPP4B</t>
         </is>
       </c>
       <c r="C218">
@@ -2628,7 +2628,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ITGA6;ITGA6</t>
+          <t>ITGA6</t>
         </is>
       </c>
       <c r="C222">
@@ -2638,7 +2638,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ITPR1;ITPR1;ITPR1</t>
+          <t>ITPR1</t>
         </is>
       </c>
       <c r="C223">
@@ -2648,7 +2648,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>JAG2;JAG2</t>
+          <t>JAG2</t>
         </is>
       </c>
       <c r="C224">
@@ -2668,7 +2668,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>KCNE1;KCNE1;KCNE1</t>
+          <t>KCNE1</t>
         </is>
       </c>
       <c r="C226">
@@ -2678,7 +2678,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>KCNE1;KCNE1;KCNE1;KCNE1;KCNE1</t>
+          <t>KCNE1</t>
         </is>
       </c>
       <c r="C227">
@@ -2688,7 +2688,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>KCNIP3;KCNIP3</t>
+          <t>KCNIP3</t>
         </is>
       </c>
       <c r="C228">
@@ -2698,7 +2698,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>KCNMA1;KCNMA1;KCNMA1;KCNMA1</t>
+          <t>KCNMA1</t>
         </is>
       </c>
       <c r="C229">
@@ -2721,7 +2721,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>KCP;KCP</t>
+          <t>KCP</t>
         </is>
       </c>
       <c r="C231">
@@ -2761,7 +2761,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>KIF1B;KIF1B</t>
+          <t>KIF1B</t>
         </is>
       </c>
       <c r="C235">
@@ -2781,7 +2781,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>KIRREL3;KIRREL3</t>
+          <t>KIRREL3</t>
         </is>
       </c>
       <c r="C237">
@@ -2801,7 +2801,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>KTN1;KTN1;KTN1;KTN1</t>
+          <t>KTN1</t>
         </is>
       </c>
       <c r="C239">
@@ -2834,7 +2834,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>LDB2;LDB2</t>
+          <t>LDB2</t>
         </is>
       </c>
       <c r="C242">
@@ -2854,7 +2854,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>LLGL2;LLGL2;LLGL2</t>
+          <t>LLGL2</t>
         </is>
       </c>
       <c r="C244">
@@ -2874,7 +2874,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>LOC100130872-SPON2;LOC100130872</t>
+          <t>LOC100130872-SPON2</t>
         </is>
       </c>
       <c r="C246">
@@ -2914,7 +2914,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>LPPR5;LPPR5</t>
+          <t>LPPR5</t>
         </is>
       </c>
       <c r="C250">
@@ -2934,7 +2934,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>LRRC8D;LRRC8D</t>
+          <t>LRRC8D</t>
         </is>
       </c>
       <c r="C252">
@@ -2944,7 +2944,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>LYN;LYN</t>
+          <t>LYN</t>
         </is>
       </c>
       <c r="C253">
@@ -2977,7 +2977,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>MBP;MBP;MBP;MBP;MBP</t>
+          <t>MBP</t>
         </is>
       </c>
       <c r="C256">
@@ -2987,7 +2987,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>MCF2L;MCF2L</t>
+          <t>MCF2L</t>
         </is>
       </c>
       <c r="C257">
@@ -2997,7 +2997,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>MCM10;MCM10</t>
+          <t>MCM10</t>
         </is>
       </c>
       <c r="C258">
@@ -3027,7 +3027,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>METTL13;METTL13;METTL13</t>
+          <t>METTL13</t>
         </is>
       </c>
       <c r="C261">
@@ -3057,7 +3057,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>MITF;MITF;MITF;MITF</t>
+          <t>MITF</t>
         </is>
       </c>
       <c r="C264">
@@ -3077,7 +3077,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>MORF4L1;MORF4L1</t>
+          <t>MORF4L1</t>
         </is>
       </c>
       <c r="C266">
@@ -3117,7 +3117,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>MRPS27;PTCD2</t>
+          <t>MRPS27</t>
         </is>
       </c>
       <c r="C270">
@@ -3127,7 +3127,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>MRTO4;KIAA0090</t>
+          <t>MRTO4</t>
         </is>
       </c>
       <c r="C271">
@@ -3137,7 +3137,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>MSRB3;MSRB3</t>
+          <t>MSRB3</t>
         </is>
       </c>
       <c r="C272">
@@ -3147,7 +3147,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>MT1DP;MT1DP</t>
+          <t>MT1DP</t>
         </is>
       </c>
       <c r="C273">
@@ -3197,7 +3197,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>NCOR2;NCOR2</t>
+          <t>NCOR2</t>
         </is>
       </c>
       <c r="C278">
@@ -3217,7 +3217,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>NFYC;NFYC;NFYC;LOC100130557;NFYC;NFYC</t>
+          <t>NFYC</t>
         </is>
       </c>
       <c r="C280">
@@ -3290,7 +3290,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>OGDH;OGDH;OGDH</t>
+          <t>OGDH</t>
         </is>
       </c>
       <c r="C287">
@@ -3300,7 +3300,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>OPA3;OPA3</t>
+          <t>OPA3</t>
         </is>
       </c>
       <c r="C288">
@@ -3320,7 +3320,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>OSBPL5;OSBPL5;OSBPL5</t>
+          <t>OSBPL5</t>
         </is>
       </c>
       <c r="C290">
@@ -3330,7 +3330,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>P2RX5;P2RX5;P2RX5</t>
+          <t>P2RX5</t>
         </is>
       </c>
       <c r="C291">
@@ -3340,7 +3340,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>PACS2;PACS2</t>
+          <t>PACS2</t>
         </is>
       </c>
       <c r="C292">
@@ -3363,7 +3363,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>PAPD5;PAPD5</t>
+          <t>PAPD5</t>
         </is>
       </c>
       <c r="C294">
@@ -3403,7 +3403,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>PDS5A;PDS5A;PDS5A</t>
+          <t>PDS5A</t>
         </is>
       </c>
       <c r="C298">
@@ -3433,7 +3433,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>PEA15;PEA15</t>
+          <t>PEA15</t>
         </is>
       </c>
       <c r="C301">
@@ -3453,7 +3453,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>PF4;PF4</t>
+          <t>PF4</t>
         </is>
       </c>
       <c r="C303">
@@ -3473,7 +3473,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>PKD1;PKD1</t>
+          <t>PKD1</t>
         </is>
       </c>
       <c r="C305">
@@ -3493,7 +3493,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>PLEC1;PLEC1;PLEC1;PLEC1</t>
+          <t>PLEC1</t>
         </is>
       </c>
       <c r="C307">
@@ -3513,7 +3513,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>PLS3;PLS3</t>
+          <t>PLS3</t>
         </is>
       </c>
       <c r="C309">
@@ -3523,7 +3523,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>PLXNB3;PLXNB3;PLXNB3;PLXNB3</t>
+          <t>PLXNB3</t>
         </is>
       </c>
       <c r="C310">
@@ -3543,7 +3543,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>PP14571;GPC1</t>
+          <t>PP14571</t>
         </is>
       </c>
       <c r="C312">
@@ -3553,7 +3553,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>PPM1M;PPM1M</t>
+          <t>PPM1M</t>
         </is>
       </c>
       <c r="C313">
@@ -3563,7 +3563,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>PRCP;PRCP</t>
+          <t>PRCP</t>
         </is>
       </c>
       <c r="C314">
@@ -3593,7 +3593,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>PRKCZ;PRKCZ;PRKCZ</t>
+          <t>PRKCZ</t>
         </is>
       </c>
       <c r="C317">
@@ -3623,7 +3623,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>PRSS8;PRSS8</t>
+          <t>PRSS8</t>
         </is>
       </c>
       <c r="C320">
@@ -3633,7 +3633,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>PVRL1;PVRL1</t>
+          <t>PVRL1</t>
         </is>
       </c>
       <c r="C321">
@@ -3673,7 +3673,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>RANBP3L;RANBP3L</t>
+          <t>RANBP3L</t>
         </is>
       </c>
       <c r="C325">
@@ -3683,7 +3683,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>RAP1GAP;RAP1GAP;RAP1GAP</t>
+          <t>RAP1GAP</t>
         </is>
       </c>
       <c r="C326">
@@ -3693,7 +3693,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>RAPGEF4;RAPGEF4;RAPGEF4</t>
+          <t>RAPGEF4</t>
         </is>
       </c>
       <c r="C327">
@@ -3733,7 +3733,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>RGL2;RGL2</t>
+          <t>RGL2</t>
         </is>
       </c>
       <c r="C331">
@@ -3753,7 +3753,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>RNF19A;RNF19A</t>
+          <t>RNF19A</t>
         </is>
       </c>
       <c r="C333">
@@ -3763,7 +3763,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>RNF222;RNF222</t>
+          <t>RNF222</t>
         </is>
       </c>
       <c r="C334">
@@ -3773,7 +3773,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>RNF41;RNF41;RNF41;RNF41</t>
+          <t>RNF41</t>
         </is>
       </c>
       <c r="C335">
@@ -3783,7 +3783,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>RNF41;RNF41;RNF41;RNF41;RNF41;RNF41</t>
+          <t>RNF41</t>
         </is>
       </c>
       <c r="C336">
@@ -3803,7 +3803,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>RPL32;RPL32</t>
+          <t>RPL32</t>
         </is>
       </c>
       <c r="C338">
@@ -3823,7 +3823,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>RPS4Y2;RPS4Y2</t>
+          <t>RPS4Y2</t>
         </is>
       </c>
       <c r="C340">
@@ -3833,7 +3833,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>RUFY2;RUFY2;RUFY2</t>
+          <t>RUFY2</t>
         </is>
       </c>
       <c r="C341">
@@ -3873,7 +3873,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>SCRIB;SCRIB</t>
+          <t>SCRIB</t>
         </is>
       </c>
       <c r="C345">
@@ -3893,7 +3893,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>SH3GL3;SH3GL3</t>
+          <t>SH3GL3</t>
         </is>
       </c>
       <c r="C347">
@@ -3913,7 +3913,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>SIL1;SIL1</t>
+          <t>SIL1</t>
         </is>
       </c>
       <c r="C349">
@@ -3923,7 +3923,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SLC12A3;SLC12A3;SLC12A3</t>
+          <t>SLC12A3</t>
         </is>
       </c>
       <c r="C350">
@@ -3933,7 +3933,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>SLC12A5;SLC12A5</t>
+          <t>SLC12A5</t>
         </is>
       </c>
       <c r="C351">
@@ -3973,7 +3973,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>SLC5A10;SLC5A10;FAM83G</t>
+          <t>SLC5A10</t>
         </is>
       </c>
       <c r="C355">
@@ -3983,7 +3983,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>SLC6A12;SLC6A12;SLC6A12;SLC6A12</t>
+          <t>SLC6A12</t>
         </is>
       </c>
       <c r="C356">
@@ -4013,7 +4013,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>SLCO3A1;SLCO3A1</t>
+          <t>SLCO3A1</t>
         </is>
       </c>
       <c r="C359">
@@ -4036,7 +4036,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>SMAD9;SMAD9</t>
+          <t>SMAD9</t>
         </is>
       </c>
       <c r="C361">
@@ -4046,7 +4046,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>SMC1A;RIBC1;RIBC1</t>
+          <t>SMC1A</t>
         </is>
       </c>
       <c r="C362">
@@ -4056,7 +4056,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>SNAP23;SNAP23</t>
+          <t>SNAP23</t>
         </is>
       </c>
       <c r="C363">
@@ -4076,7 +4076,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>SNORD85;PUM1;PUM1</t>
+          <t>SNORD85</t>
         </is>
       </c>
       <c r="C365">
@@ -4086,7 +4086,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>SNRK;SNRK</t>
+          <t>SNRK</t>
         </is>
       </c>
       <c r="C366">
@@ -4096,7 +4096,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>SNX1;SNX1;SNX1</t>
+          <t>SNX1</t>
         </is>
       </c>
       <c r="C367">
@@ -4106,7 +4106,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>SNX5;SNORD17;SNX5</t>
+          <t>SNX5</t>
         </is>
       </c>
       <c r="C368">
@@ -4139,7 +4139,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>SPTBN1;SPTBN1</t>
+          <t>SPTBN1</t>
         </is>
       </c>
       <c r="C371">
@@ -4169,7 +4169,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>STMN1;STMN1;STMN1;STMN1</t>
+          <t>STMN1</t>
         </is>
       </c>
       <c r="C374">
@@ -4192,7 +4192,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>STXBP5;STXBP5</t>
+          <t>STXBP5</t>
         </is>
       </c>
       <c r="C376">
@@ -4202,7 +4202,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>SYNGR1;SYNGR1;SYNGR1</t>
+          <t>SYNGR1</t>
         </is>
       </c>
       <c r="C377">
@@ -4212,7 +4212,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>TBC1D2B;TBC1D2B</t>
+          <t>TBC1D2B</t>
         </is>
       </c>
       <c r="C378">
@@ -4232,7 +4232,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>TBL1Y;TBL1Y;TBL1Y</t>
+          <t>TBL1Y</t>
         </is>
       </c>
       <c r="C380">
@@ -4242,7 +4242,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>TBL1Y;TBL1Y;TBL1Y;TBL1Y;TBL1Y;TBL1Y</t>
+          <t>TBL1Y</t>
         </is>
       </c>
       <c r="C381">
@@ -4252,7 +4252,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>TBX3;TBX3</t>
+          <t>TBX3</t>
         </is>
       </c>
       <c r="C382">
@@ -4262,7 +4262,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>TCF3;TCF3</t>
+          <t>TCF3</t>
         </is>
       </c>
       <c r="C383">
@@ -4285,7 +4285,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>TLE3;TLE3;TLE3</t>
+          <t>TLE3</t>
         </is>
       </c>
       <c r="C385">
@@ -4315,7 +4315,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>TM9SF1;TM9SF1</t>
+          <t>TM9SF1</t>
         </is>
       </c>
       <c r="C388">
@@ -4335,7 +4335,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>TMCC1;TMCC1</t>
+          <t>TMCC1</t>
         </is>
       </c>
       <c r="C390">
@@ -4375,7 +4375,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>TMPRSS2;TMPRSS2</t>
+          <t>TMPRSS2</t>
         </is>
       </c>
       <c r="C394">
@@ -4395,7 +4395,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>TNXB;TNXB</t>
+          <t>TNXB</t>
         </is>
       </c>
       <c r="C396">
@@ -4405,7 +4405,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>TP73;TP73;TP73;TP73</t>
+          <t>TP73</t>
         </is>
       </c>
       <c r="C397">
@@ -4415,7 +4415,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>TRIM55;TRIM55;TRIM55;TRIM55;TRIM55;TRIM55;TRIM55;TRIM55</t>
+          <t>TRIM55</t>
         </is>
       </c>
       <c r="C398">
@@ -4445,7 +4445,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>TSPY4;TSPY4</t>
+          <t>TSPY4</t>
         </is>
       </c>
       <c r="C401">
@@ -4475,7 +4475,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>UBE2I;UBE2I;UBE2I;UBE2I</t>
+          <t>UBE2I</t>
         </is>
       </c>
       <c r="C404">
@@ -4525,7 +4525,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>UTY;UTY;UTY</t>
+          <t>UTY</t>
         </is>
       </c>
       <c r="C409">
@@ -4545,7 +4545,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>VAV2;VAV2</t>
+          <t>VAV2</t>
         </is>
       </c>
       <c r="C411">
@@ -4605,7 +4605,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>WDR81;WDR81;WDR81;WDR81</t>
+          <t>WDR81</t>
         </is>
       </c>
       <c r="C417">
@@ -4635,7 +4635,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ZFHX3;ZFHX3</t>
+          <t>ZFHX3</t>
         </is>
       </c>
       <c r="C420">
@@ -4675,7 +4675,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ZNF135;ZNF135;ZNF135;ZNF135</t>
+          <t>ZNF135</t>
         </is>
       </c>
       <c r="C424">
@@ -4695,7 +4695,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ZNF277;ZNF277;DOCK4</t>
+          <t>ZNF277</t>
         </is>
       </c>
       <c r="C426">
@@ -4755,7 +4755,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ZNF761;LOC147804</t>
+          <t>ZNF761</t>
         </is>
       </c>
       <c r="C432">
@@ -4765,7 +4765,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ACAN;ACAN</t>
+          <t>ACAN</t>
         </is>
       </c>
       <c r="D433">
@@ -4785,7 +4785,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ADAP1;ADAP1;ADAP1;ADAP1;ADAP1;ADAP1</t>
+          <t>ADAP1</t>
         </is>
       </c>
       <c r="D435">
@@ -4795,7 +4795,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ADAR;ADAR;ADAR;ADAR;ADAR</t>
+          <t>ADAR</t>
         </is>
       </c>
       <c r="D436">
@@ -4815,7 +4815,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>AK4;AK4;AK4</t>
+          <t>AK4</t>
         </is>
       </c>
       <c r="D438">
@@ -4825,7 +4825,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>AKIP1;AKIP1;AKIP1;AKIP1;AKIP1;AKIP1;ST5</t>
+          <t>AKIP1</t>
         </is>
       </c>
       <c r="D439">
@@ -4835,7 +4835,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>AKR7L;AKR7L</t>
+          <t>AKR7L</t>
         </is>
       </c>
       <c r="D440">
@@ -4845,7 +4845,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ANKRD1;ANKRD1</t>
+          <t>ANKRD1</t>
         </is>
       </c>
       <c r="D441">
@@ -4865,7 +4865,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ANKRD34C-AS1;ANKRD34C</t>
+          <t>ANKRD34C-AS1</t>
         </is>
       </c>
       <c r="D443">
@@ -4875,7 +4875,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>AP3S2;AP3S2</t>
+          <t>AP3S2</t>
         </is>
       </c>
       <c r="D444">
@@ -4925,7 +4925,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>BTN2A2;BTN2A2</t>
+          <t>BTN2A2</t>
         </is>
       </c>
       <c r="D449">
@@ -4945,7 +4945,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>C14orf118;C14orf118</t>
+          <t>C14orf118</t>
         </is>
       </c>
       <c r="D451">
@@ -4975,7 +4975,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>C1orf38;C1orf38;C1orf38</t>
+          <t>C1orf38</t>
         </is>
       </c>
       <c r="D454">
@@ -5015,7 +5015,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>C4orf39;TRIM61</t>
+          <t>C4orf39</t>
         </is>
       </c>
       <c r="D458">
@@ -5025,7 +5025,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>C5orf66-AS1;C5orf66-AS1;C5orf66</t>
+          <t>C5orf66-AS1</t>
         </is>
       </c>
       <c r="D459">
@@ -5035,7 +5035,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>C7orf49;C7orf49;C7orf49;C7orf49;C7orf49;C7orf49;C7orf49</t>
+          <t>C7orf49</t>
         </is>
       </c>
       <c r="D460">
@@ -5055,7 +5055,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>C8orf31;C8orf31</t>
+          <t>C8orf31</t>
         </is>
       </c>
       <c r="D462">
@@ -5065,7 +5065,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>C8orf37-AS1;C8orf37-AS1;C8orf37-AS1;C8orf37-AS1;C8orf37-AS1;C8orf37-AS1;C8orf37-AS1;C8orf37-AS1;C8orf37-AS1</t>
+          <t>C8orf37-AS1</t>
         </is>
       </c>
       <c r="D463">
@@ -5095,7 +5095,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>CAPN9;CAPN9</t>
+          <t>CAPN9</t>
         </is>
       </c>
       <c r="D466">
@@ -5145,7 +5145,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>CELF4;CELF4;CELF4;CELF4</t>
+          <t>CELF4</t>
         </is>
       </c>
       <c r="D471">
@@ -5188,7 +5188,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>COG5;COG5;COG5</t>
+          <t>COG5</t>
         </is>
       </c>
       <c r="D475">
@@ -5218,7 +5218,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM;CREM</t>
+          <t>CREM</t>
         </is>
       </c>
       <c r="D478">
@@ -5228,7 +5228,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>CRMP1;CRMP1</t>
+          <t>CRMP1</t>
         </is>
       </c>
       <c r="D479">
@@ -5258,7 +5258,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>CTNNA2;CTNNA2</t>
+          <t>CTNNA2</t>
         </is>
       </c>
       <c r="D482">
@@ -5278,7 +5278,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>CXCR5;CXCR5</t>
+          <t>CXCR5</t>
         </is>
       </c>
       <c r="D484">
@@ -5311,7 +5311,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>DEF8;DEF8</t>
+          <t>DEF8</t>
         </is>
       </c>
       <c r="D487">
@@ -5321,7 +5321,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>DEFB104B;DEFB104A</t>
+          <t>DEFB104B</t>
         </is>
       </c>
       <c r="D488">
@@ -5341,7 +5341,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>DPP6;DPP6;DPP6;DPP6</t>
+          <t>DPP6</t>
         </is>
       </c>
       <c r="D490">
@@ -5361,7 +5361,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>DUSP22;DUSP22</t>
+          <t>DUSP22</t>
         </is>
       </c>
       <c r="D492">
@@ -5371,7 +5371,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>DUSP22;DUSP22;DUSP22;DUSP22;DUSP22</t>
+          <t>DUSP22</t>
         </is>
       </c>
       <c r="D493">
@@ -5381,7 +5381,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>DYSF;DYSF;DYSF;DYSF;DYSF;DYSF;DYSF;DYSF;DYSF;DYSF;DYSF;DYSF;DYSF;DYSF</t>
+          <t>DYSF</t>
         </is>
       </c>
       <c r="D494">
@@ -5401,7 +5401,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>EPB41L1;EPB41L1;EPB41L1;EPB41L1</t>
+          <t>EPB41L1</t>
         </is>
       </c>
       <c r="D496">
@@ -5411,7 +5411,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>EPSTI1;EPSTI1</t>
+          <t>EPSTI1</t>
         </is>
       </c>
       <c r="D497">
@@ -5434,7 +5434,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>FAM134C;FAM134C</t>
+          <t>FAM134C</t>
         </is>
       </c>
       <c r="D499">
@@ -5444,7 +5444,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>FAM196B;DOCK2</t>
+          <t>FAM196B</t>
         </is>
       </c>
       <c r="D500">
@@ -5474,7 +5474,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>FMN1;FMN1</t>
+          <t>FMN1</t>
         </is>
       </c>
       <c r="D503">
@@ -5494,7 +5494,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>FRMD6-AS1;FRMD6;FRMD6;FRMD6</t>
+          <t>FRMD6-AS1</t>
         </is>
       </c>
       <c r="D505">
@@ -5514,7 +5514,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>FSHR;FSHR</t>
+          <t>FSHR</t>
         </is>
       </c>
       <c r="D507">
@@ -5534,7 +5534,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>GABRA5;GABRA5</t>
+          <t>GABRA5</t>
         </is>
       </c>
       <c r="D509">
@@ -5574,7 +5574,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>HBS1L;HBS1L;HBS1L</t>
+          <t>HBS1L</t>
         </is>
       </c>
       <c r="D513">
@@ -5594,7 +5594,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>HDLBP;HDLBP;HDLBP</t>
+          <t>HDLBP</t>
         </is>
       </c>
       <c r="D515">
@@ -5604,7 +5604,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>HIVEP3;HIVEP3</t>
+          <t>HIVEP3</t>
         </is>
       </c>
       <c r="D516">
@@ -5664,7 +5664,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>HSDL2;HSDL2;HSDL2</t>
+          <t>HSDL2</t>
         </is>
       </c>
       <c r="D522">
@@ -5684,7 +5684,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>IFI27;IFI27;IFI27;IFI27</t>
+          <t>IFI27</t>
         </is>
       </c>
       <c r="D524">
@@ -5743,7 +5743,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>IFIT3;IFIT3</t>
+          <t>IFIT3</t>
         </is>
       </c>
       <c r="D529">
@@ -5769,7 +5769,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>IRF7;IRF7;IRF7</t>
+          <t>IRF7</t>
         </is>
       </c>
       <c r="D531">
@@ -5792,7 +5792,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>ITIH1;ITIH1;ITIH1;ITIH1</t>
+          <t>ITIH1</t>
         </is>
       </c>
       <c r="D533">
@@ -5802,7 +5802,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>JPH3;JPH3</t>
+          <t>JPH3</t>
         </is>
       </c>
       <c r="D534">
@@ -5812,7 +5812,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>KCNQ3;KCNQ3</t>
+          <t>KCNQ3</t>
         </is>
       </c>
       <c r="D535">
@@ -5852,7 +5852,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>KLK11;KLK11;KLK11;KLK11;KLK11</t>
+          <t>KLK11</t>
         </is>
       </c>
       <c r="D539">
@@ -5872,7 +5872,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>LINC00907;LINC00907;LINC00907;LINC00907;LINC00907</t>
+          <t>LINC00907</t>
         </is>
       </c>
       <c r="D541">
@@ -5882,7 +5882,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>LINC01115;LINC01115</t>
+          <t>LINC01115</t>
         </is>
       </c>
       <c r="D542">
@@ -5912,7 +5912,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>LOC101928909;TTC7B</t>
+          <t>LOC101928909</t>
         </is>
       </c>
       <c r="D545">
@@ -5922,7 +5922,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>LOC151658;LOC151658</t>
+          <t>LOC151658</t>
         </is>
       </c>
       <c r="D546">
@@ -5952,7 +5952,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>LRPAP1;LRPAP1</t>
+          <t>LRPAP1</t>
         </is>
       </c>
       <c r="D549">
@@ -5972,7 +5972,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>MAGI2-AS3;MAGI2-AS3;MAGI2-AS3;MAGI2-AS3</t>
+          <t>MAGI2-AS3</t>
         </is>
       </c>
       <c r="D551">
@@ -5992,7 +5992,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>MATN4;MATN4;MATN4</t>
+          <t>MATN4</t>
         </is>
       </c>
       <c r="D553">
@@ -6012,7 +6012,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>MCTP2;MCTP2</t>
+          <t>MCTP2</t>
         </is>
       </c>
       <c r="D555">
@@ -6042,7 +6042,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>MIB2;MIB2;MIB2;MIB2;MIB2</t>
+          <t>MIB2</t>
         </is>
       </c>
       <c r="D558">
@@ -6062,7 +6062,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>MIR548Q;ZNF462</t>
+          <t>MIR548Q</t>
         </is>
       </c>
       <c r="D560">
@@ -6082,7 +6082,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>MPDU1;MPDU1</t>
+          <t>MPDU1</t>
         </is>
       </c>
       <c r="D562">
@@ -6102,7 +6102,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>MX1;MX1</t>
+          <t>MX1</t>
         </is>
       </c>
       <c r="D564">
@@ -6145,7 +6145,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>NAF1;NAF1</t>
+          <t>NAF1</t>
         </is>
       </c>
       <c r="D568">
@@ -6155,7 +6155,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>NETO1;NETO1;NETO1</t>
+          <t>NETO1</t>
         </is>
       </c>
       <c r="D569">
@@ -6165,7 +6165,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>NFATC1;NFATC1;NFATC1;NFATC1;NFATC1</t>
+          <t>NFATC1</t>
         </is>
       </c>
       <c r="D570">
@@ -6208,7 +6208,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>NPNT;NPNT;NPNT;NPNT;NPNT</t>
+          <t>NPNT</t>
         </is>
       </c>
       <c r="D574">
@@ -6228,7 +6228,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>NT5C2;NT5C2</t>
+          <t>NT5C2</t>
         </is>
       </c>
       <c r="D576">
@@ -6238,7 +6238,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>NTM;NTM</t>
+          <t>NTM</t>
         </is>
       </c>
       <c r="D577">
@@ -6248,7 +6248,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>OASL;OASL;OASL</t>
+          <t>OASL</t>
         </is>
       </c>
       <c r="D578">
@@ -6278,7 +6278,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>OR2L13;OR2L13</t>
+          <t>OR2L13</t>
         </is>
       </c>
       <c r="D581">
@@ -6338,7 +6338,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>PARP11;PARP11;PARP11;PARP11</t>
+          <t>PARP11</t>
         </is>
       </c>
       <c r="D587">
@@ -6361,7 +6361,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>PARP9;PARP9;DTX3L;PARP9;PARP9;PARP9;PARP9</t>
+          <t>PARP9</t>
         </is>
       </c>
       <c r="D589">
@@ -6374,7 +6374,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>PARP9;PARP9;PARP9;PARP9;PARP9;PARP9;DTX3L</t>
+          <t>PARP9</t>
         </is>
       </c>
       <c r="D590">
@@ -6384,7 +6384,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>PARVB;PARVB;PARVB;PARVB</t>
+          <t>PARVB</t>
         </is>
       </c>
       <c r="D591">
@@ -6394,7 +6394,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>PCDHA4;PCDHA4;PCDHA4;PCDHA4;PCDHA1;PCDHA1;PCDHA2;PCDHA3</t>
+          <t>PCDHA4</t>
         </is>
       </c>
       <c r="D592">
@@ -6424,7 +6424,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>PCDHGA2;PCDHGA1;PCDHGA2</t>
+          <t>PCDHGA2</t>
         </is>
       </c>
       <c r="D595">
@@ -6434,7 +6434,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>PCDHGA4;PCDHGB5;PCDHGA6;PCDHGA1;PCDHGA8;PCDHGA5;PCDHGB1;PCDHGB5;PCDHGB4;PCDHGA3;PCDHGA2;PCDHGA7;PCDHGB2;PCDHGB3</t>
+          <t>PCDHGA4</t>
         </is>
       </c>
       <c r="D596">
@@ -6444,7 +6444,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>PCDHGB3;PCDHGB3;PCDHGA1;PCDHGA2;PCDHGA3;PCDHGB1;PCDHGA4;PCDHGB2;PCDHGA5</t>
+          <t>PCDHGB3</t>
         </is>
       </c>
       <c r="D597">
@@ -6454,7 +6454,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>PCDHGB4;PCDHGA4;PCDHGA6;PCDHGA1;PCDHGA5;PCDHGB1;PCDHGA3;PCDHGA2;PCDHGA7;PCDHGB2;PCDHGB4;PCDHGB3</t>
+          <t>PCDHGB4</t>
         </is>
       </c>
       <c r="D598">
@@ -6464,7 +6464,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>PCDHGC4;PCDHGC4;PCDHGA8;PCDHGB5;PCDHGA9;PCDHGB6;PCDHGA10;PCDHGB7;PCDHGA11;PCDHGA11;PCDHGA12;PCDHGC3;PCDHGC3;PCDHGA1;PCDHGA2;PCDHGA3;PCDHGB1;PCDHGA4;PCDHGB2;PCDHGA5;PCDHGB3;PCDHGA6;PCDHGA7;PCDHGB4</t>
+          <t>PCDHGC4</t>
         </is>
       </c>
       <c r="D599">
@@ -6484,7 +6484,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>PDLIM4;PDLIM4</t>
+          <t>PDLIM4</t>
         </is>
       </c>
       <c r="D601">
@@ -6494,7 +6494,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>PDLIM5;PDLIM5;PDLIM5;PDLIM5;PDLIM5;PDLIM5</t>
+          <t>PDLIM5</t>
         </is>
       </c>
       <c r="D602">
@@ -6504,7 +6504,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>PEPD;PEPD;PEPD</t>
+          <t>PEPD</t>
         </is>
       </c>
       <c r="D603">
@@ -6524,7 +6524,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>PIWIL1;PIWIL1</t>
+          <t>PIWIL1</t>
         </is>
       </c>
       <c r="D605">
@@ -6534,7 +6534,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>PKIG;PKIG;PKIG;PKIG</t>
+          <t>PKIG</t>
         </is>
       </c>
       <c r="D606">
@@ -6544,7 +6544,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>PKIG;PKIG;PKIG;PKIG;PKIG</t>
+          <t>PKIG</t>
         </is>
       </c>
       <c r="D607">
@@ -6564,7 +6564,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>PLEC1;PLEC1;PLEC1;PLEC1;PLEC1;PLEC1;PLEC1;PLEC1</t>
+          <t>PLEC1</t>
         </is>
       </c>
       <c r="D609">
@@ -6597,7 +6597,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>PPARG;PPARG;PPARG</t>
+          <t>PPARG</t>
         </is>
       </c>
       <c r="D612">
@@ -6610,7 +6610,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>PRDM15;PRDM15;PRDM15;PRDM15;PRDM15;PRDM15</t>
+          <t>PRDM15</t>
         </is>
       </c>
       <c r="D613">
@@ -6630,7 +6630,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>PROSER2;PROSER2-AS1</t>
+          <t>PROSER2</t>
         </is>
       </c>
       <c r="D615">
@@ -6640,7 +6640,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>PRSS35;PRSS35</t>
+          <t>PRSS35</t>
         </is>
       </c>
       <c r="D616">
@@ -6650,7 +6650,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>PSME4;PSME4</t>
+          <t>PSME4</t>
         </is>
       </c>
       <c r="D617">
@@ -6660,7 +6660,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>PTPRN2;PTPRN2;PTPRN2</t>
+          <t>PTPRN2</t>
         </is>
       </c>
       <c r="D618">
@@ -6680,7 +6680,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>RABGAP1L;RABGAP1L</t>
+          <t>RABGAP1L</t>
         </is>
       </c>
       <c r="D620">
@@ -6690,7 +6690,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>RABGAP1L;RABGAP1L;RABGAP1L;RABGAP1L</t>
+          <t>RABGAP1L</t>
         </is>
       </c>
       <c r="D621">
@@ -6710,7 +6710,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>RAI14;RAI14;RAI14;RAI14;RAI14;RAI14</t>
+          <t>RAI14</t>
         </is>
       </c>
       <c r="D623">
@@ -6720,7 +6720,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>RAMP1;RAMP1</t>
+          <t>RAMP1</t>
         </is>
       </c>
       <c r="D624">
@@ -6740,7 +6740,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>RBMS3;RBMS3;RBMS3;RBMS3;RBMS3</t>
+          <t>RBMS3</t>
         </is>
       </c>
       <c r="D626">
@@ -6750,7 +6750,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>RFPL2;RFPL2</t>
+          <t>RFPL2</t>
         </is>
       </c>
       <c r="D627">
@@ -6760,7 +6760,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>RGS12;RGS12</t>
+          <t>RGS12</t>
         </is>
       </c>
       <c r="D628">
@@ -6810,7 +6810,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>RNF39;RNF39</t>
+          <t>RNF39</t>
         </is>
       </c>
       <c r="D633">
@@ -6820,7 +6820,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>RORC;RORC</t>
+          <t>RORC</t>
         </is>
       </c>
       <c r="D634">
@@ -6830,7 +6830,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>RPF2;RPF2</t>
+          <t>RPF2</t>
         </is>
       </c>
       <c r="D635">
@@ -6840,7 +6840,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>RPTOR;RPTOR</t>
+          <t>RPTOR</t>
         </is>
       </c>
       <c r="D636">
@@ -6850,7 +6850,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>RWDD3;RWDD3</t>
+          <t>RWDD3</t>
         </is>
       </c>
       <c r="D637">
@@ -6860,7 +6860,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>SCHIP1;SCHIP1;SCHIP1;SCHIP1;SCHIP1;SCHIP1;IQCJ-SCHIP1;IQCJ-SCHIP1</t>
+          <t>SCHIP1</t>
         </is>
       </c>
       <c r="D638">
@@ -6880,7 +6880,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>SGCD;SGCD;SGCD;SGCD;SGCD;SGCD</t>
+          <t>SGCD</t>
         </is>
       </c>
       <c r="D640">
@@ -6890,7 +6890,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>SH2D5;SH2D5</t>
+          <t>SH2D5</t>
         </is>
       </c>
       <c r="D641">
@@ -6910,7 +6910,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>SHPRH;SHPRH</t>
+          <t>SHPRH</t>
         </is>
       </c>
       <c r="D643">
@@ -6920,7 +6920,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>SKP2;SKP2;SKP2</t>
+          <t>SKP2</t>
         </is>
       </c>
       <c r="D644">
@@ -6930,7 +6930,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>SLC12A8;SLC12A8</t>
+          <t>SLC12A8</t>
         </is>
       </c>
       <c r="D645">
@@ -6950,7 +6950,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>SLC2A11;SLC2A11;SLC2A11;SLC2A11;SLC2A11;SLC2A11;SLC2A11;SLC2A11;SLC2A11;SLC2A11;SLC2A11;SLC2A11</t>
+          <t>SLC2A11</t>
         </is>
       </c>
       <c r="D647">
@@ -6970,7 +6970,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>SLC36A4;SLC36A4</t>
+          <t>SLC36A4</t>
         </is>
       </c>
       <c r="D649">
@@ -7000,7 +7000,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>SMYD3;SMYD3</t>
+          <t>SMYD3</t>
         </is>
       </c>
       <c r="D652">
@@ -7023,7 +7023,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>SNAR-G2;CGB2</t>
+          <t>SNAR-G2</t>
         </is>
       </c>
       <c r="D654">
@@ -7033,7 +7033,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>SORBS3;SORBS3</t>
+          <t>SORBS3</t>
         </is>
       </c>
       <c r="D655">
@@ -7063,7 +7063,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>ST13;ST13;XPNPEP3;XPNPEP3</t>
+          <t>ST13</t>
         </is>
       </c>
       <c r="D658">
@@ -7073,7 +7073,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>STAU2;STAU2;STAU2;STAU2;STAU2;STAU2;STAU2</t>
+          <t>STAU2</t>
         </is>
       </c>
       <c r="D659">
@@ -7093,7 +7093,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>SV2B;SV2B</t>
+          <t>SV2B</t>
         </is>
       </c>
       <c r="D661">
@@ -7103,7 +7103,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>SYBU;SYBU;SYBU;SYBU;SYBU;SYBU;SYBU;SYBU;SYBU;SYBU;SYBU;SYBU;SYBU;SYBU</t>
+          <t>SYBU</t>
         </is>
       </c>
       <c r="D662">
@@ -7113,7 +7113,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>SYS1;SYS1-DBNDD2</t>
+          <t>SYS1</t>
         </is>
       </c>
       <c r="D663">
@@ -7163,7 +7163,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>TBCD;FN3K</t>
+          <t>TBCD</t>
         </is>
       </c>
       <c r="D668">
@@ -7173,7 +7173,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>TBX20;TBX20</t>
+          <t>TBX20</t>
         </is>
       </c>
       <c r="D669">
@@ -7243,7 +7243,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>TMOD2;TMOD2</t>
+          <t>TMOD2</t>
         </is>
       </c>
       <c r="D676">
@@ -7273,7 +7273,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>TRPM2;TRPM2</t>
+          <t>TRPM2</t>
         </is>
       </c>
       <c r="D679">
@@ -7283,7 +7283,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>TRRAP;TRRAP</t>
+          <t>TRRAP</t>
         </is>
       </c>
       <c r="D680">
@@ -7323,7 +7323,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>TTYH1;TTYH1</t>
+          <t>TTYH1</t>
         </is>
       </c>
       <c r="D684">
@@ -7333,7 +7333,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>TYW1B;TYW1B</t>
+          <t>TYW1B</t>
         </is>
       </c>
       <c r="D685">
@@ -7343,7 +7343,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>UMOD;UMOD</t>
+          <t>UMOD</t>
         </is>
       </c>
       <c r="D686">
@@ -7353,7 +7353,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>UQCC1;UQCC1;UQCC1</t>
+          <t>UQCC1</t>
         </is>
       </c>
       <c r="D687">
@@ -7363,7 +7363,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>UQCC;UQCC</t>
+          <t>UQCC</t>
         </is>
       </c>
       <c r="D688">
@@ -7383,7 +7383,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>WNT5B;WNT5B</t>
+          <t>WNT5B</t>
         </is>
       </c>
       <c r="D690">
@@ -7446,7 +7446,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>FGF11;CHRNB1</t>
+          <t>FGF11</t>
         </is>
       </c>
       <c r="E696">
@@ -7466,7 +7466,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>KRTAP12-4;C21orf29</t>
+          <t>KRTAP12-4</t>
         </is>
       </c>
       <c r="E698">
@@ -7476,7 +7476,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>LY6E;LY6E</t>
+          <t>LY6E</t>
         </is>
       </c>
       <c r="E699">
@@ -7486,7 +7486,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>NCF4;NCF4</t>
+          <t>NCF4</t>
         </is>
       </c>
       <c r="E700">
@@ -7506,7 +7506,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>PRIC285;PRIC285</t>
+          <t>PRIC285</t>
         </is>
       </c>
       <c r="E702">
@@ -7516,7 +7516,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>PSD3;PSD3</t>
+          <t>PSD3</t>
         </is>
       </c>
       <c r="E703">
@@ -7536,7 +7536,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>STAT1;STAT1</t>
+          <t>STAT1</t>
         </is>
       </c>
       <c r="E705">
@@ -7606,7 +7606,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>AARSD1;AARSD1;AARSD1;AARSD1</t>
+          <t>AARSD1</t>
         </is>
       </c>
       <c r="F712">
@@ -7616,7 +7616,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>ACLY;ACLY</t>
+          <t>ACLY</t>
         </is>
       </c>
       <c r="F713">
@@ -7626,7 +7626,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>ACSS2;ACSS2;ACSS2</t>
+          <t>ACSS2</t>
         </is>
       </c>
       <c r="F714">
@@ -7636,7 +7636,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>ADD1;ADD1;ADD1;ADD1</t>
+          <t>ADD1</t>
         </is>
       </c>
       <c r="F715">
@@ -7646,7 +7646,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>ADD3;ADD3;ADD3</t>
+          <t>ADD3</t>
         </is>
       </c>
       <c r="F716">
@@ -7666,7 +7666,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>AKAP13;AKAP13;AKAP13</t>
+          <t>AKAP13</t>
         </is>
       </c>
       <c r="F718">
@@ -7676,7 +7676,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>ALDH8A1;ALDH8A1</t>
+          <t>ALDH8A1</t>
         </is>
       </c>
       <c r="F719">
@@ -7696,7 +7696,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>ANK3;ANK3</t>
+          <t>ANK3</t>
         </is>
       </c>
       <c r="F721">
@@ -7726,7 +7726,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>ARHGAP24;ARHGAP24</t>
+          <t>ARHGAP24</t>
         </is>
       </c>
       <c r="F724">
@@ -7736,7 +7736,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>ARHGAP26;ARHGAP26</t>
+          <t>ARHGAP26</t>
         </is>
       </c>
       <c r="F725">
@@ -7746,7 +7746,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>ATP2B2;ATP2B2</t>
+          <t>ATP2B2</t>
         </is>
       </c>
       <c r="F726">
@@ -7756,7 +7756,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>ATP5J;ATP5J;ATP5J;ATP5J;ATP5J</t>
+          <t>ATP5J</t>
         </is>
       </c>
       <c r="F727">
@@ -7766,7 +7766,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>B3GALT2;B3GALT2;CDC73</t>
+          <t>B3GALT2</t>
         </is>
       </c>
       <c r="F728">
@@ -7776,7 +7776,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>BCL2L11;BCL2L11</t>
+          <t>BCL2L11</t>
         </is>
       </c>
       <c r="F729">
@@ -7786,7 +7786,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>BCL2L14;BCL2L14;BCL2L14</t>
+          <t>BCL2L14</t>
         </is>
       </c>
       <c r="F730">
@@ -7796,7 +7796,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>BCL2L1;BCL2L1</t>
+          <t>BCL2L1</t>
         </is>
       </c>
       <c r="F731">
@@ -7806,7 +7806,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>BPTF;BPTF</t>
+          <t>BPTF</t>
         </is>
       </c>
       <c r="F732">
@@ -7816,7 +7816,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>BTG3;BTG3</t>
+          <t>BTG3</t>
         </is>
       </c>
       <c r="F733">
@@ -7876,7 +7876,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>C2orf88;C2orf88;C2orf88;C2orf88</t>
+          <t>C2orf88</t>
         </is>
       </c>
       <c r="F739">
@@ -7886,7 +7886,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>C3orf26;FILIP1L;MIR548G;FILIP1L</t>
+          <t>C3orf26</t>
         </is>
       </c>
       <c r="F740">
@@ -7916,7 +7916,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>C6orf136;C6orf136;C6orf136</t>
+          <t>C6orf136</t>
         </is>
       </c>
       <c r="F743">
@@ -7936,7 +7936,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>CAMK1D;CAMK1D</t>
+          <t>CAMK1D</t>
         </is>
       </c>
       <c r="F745">
@@ -7946,7 +7946,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>CBFA2T2;CBFA2T2;CBFA2T2;CBFA2T2;CBFA2T2</t>
+          <t>CBFA2T2</t>
         </is>
       </c>
       <c r="F746">
@@ -7956,7 +7956,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>CBX1;CBX1</t>
+          <t>CBX1</t>
         </is>
       </c>
       <c r="F747">
@@ -7986,7 +7986,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>CDK6;CDK6</t>
+          <t>CDK6</t>
         </is>
       </c>
       <c r="F750">
@@ -7996,7 +7996,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>CDYL;CDYL;CDYL</t>
+          <t>CDYL</t>
         </is>
       </c>
       <c r="F751">
@@ -8056,7 +8056,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>CREB5;CREB5;CREB5;CREB5</t>
+          <t>CREB5</t>
         </is>
       </c>
       <c r="F757">
@@ -8066,7 +8066,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>CREBBP;CREBBP</t>
+          <t>CREBBP</t>
         </is>
       </c>
       <c r="F758">
@@ -8096,7 +8096,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>CSNK1D;CSNK1D</t>
+          <t>CSNK1D</t>
         </is>
       </c>
       <c r="F761">
@@ -8106,7 +8106,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>CUX1;CUX1;CUX1</t>
+          <t>CUX1</t>
         </is>
       </c>
       <c r="F762">
@@ -8136,7 +8136,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>DIP2C;C10orf108;C10orf108</t>
+          <t>DIP2C</t>
         </is>
       </c>
       <c r="F765">
@@ -8146,7 +8146,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>DMPK;DMPK;DMPK;DMPK</t>
+          <t>DMPK</t>
         </is>
       </c>
       <c r="F766">
@@ -8156,7 +8156,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>DNHD1;DNHD1</t>
+          <t>DNHD1</t>
         </is>
       </c>
       <c r="F767">
@@ -8176,7 +8176,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>EIF4H;EIF4H</t>
+          <t>EIF4H</t>
         </is>
       </c>
       <c r="F769">
@@ -8216,7 +8216,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>FAM135A;FAM135A</t>
+          <t>FAM135A</t>
         </is>
       </c>
       <c r="F773">
@@ -8246,7 +8246,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>FBXO22;FBXO22</t>
+          <t>FBXO22</t>
         </is>
       </c>
       <c r="F776">
@@ -8286,7 +8286,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>FLJ43663;FLJ43663</t>
+          <t>FLJ43663</t>
         </is>
       </c>
       <c r="F780">
@@ -8316,7 +8316,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>FOXO3;FOXO3</t>
+          <t>FOXO3</t>
         </is>
       </c>
       <c r="F783">
@@ -8336,7 +8336,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>GAB1;GAB1</t>
+          <t>GAB1</t>
         </is>
       </c>
       <c r="F785">
@@ -8366,7 +8366,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>GJD3;GJD3</t>
+          <t>GJD3</t>
         </is>
       </c>
       <c r="F788">
@@ -8376,7 +8376,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>GLRX;GLRX</t>
+          <t>GLRX</t>
         </is>
       </c>
       <c r="F789">
@@ -8386,7 +8386,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>GSPT1;GSPT1;GSPT1</t>
+          <t>GSPT1</t>
         </is>
       </c>
       <c r="F790">
@@ -8406,7 +8406,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>HMGCS2;HMGCS2</t>
+          <t>HMGCS2</t>
         </is>
       </c>
       <c r="F792">
@@ -8416,7 +8416,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>HOXA3;HOXA3</t>
+          <t>HOXA3</t>
         </is>
       </c>
       <c r="F793">
@@ -8426,7 +8426,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>HOXA3;HOXA3;HOXA3</t>
+          <t>HOXA3</t>
         </is>
       </c>
       <c r="F794">
@@ -8456,7 +8456,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>IARS2;MIR194-1;MIR215</t>
+          <t>IARS2</t>
         </is>
       </c>
       <c r="F797">
@@ -8476,7 +8476,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>IL5RA;IL5RA;IL5RA;IL5RA;IL5RA;IL5RA;IL5RA;IL5RA;IL5RA;IL5RA;IL5RA;IL5RA</t>
+          <t>IL5RA</t>
         </is>
       </c>
       <c r="F799">
@@ -8486,7 +8486,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>INTS6;INTS6</t>
+          <t>INTS6</t>
         </is>
       </c>
       <c r="F800">
@@ -8506,7 +8506,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>ITPRIPL2;ITPRIPL2;ITPRIPL2</t>
+          <t>ITPRIPL2</t>
         </is>
       </c>
       <c r="F802">
@@ -8516,7 +8516,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>IYD;IYD;IYD</t>
+          <t>IYD</t>
         </is>
       </c>
       <c r="F803">
@@ -8536,7 +8536,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>KCNJ1;KCNJ1;KCNJ1;KCNJ1</t>
+          <t>KCNJ1</t>
         </is>
       </c>
       <c r="F805">
@@ -8546,7 +8546,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>KCTD7;KCTD7</t>
+          <t>KCTD7</t>
         </is>
       </c>
       <c r="F806">
@@ -8556,7 +8556,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>KDM3A;KDM3A</t>
+          <t>KDM3A</t>
         </is>
       </c>
       <c r="F807">
@@ -8606,7 +8606,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>LMNA;LMNA;LMNA</t>
+          <t>LMNA</t>
         </is>
       </c>
       <c r="F812">
@@ -8626,7 +8626,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>LOC285954;LOC285954;INHBA</t>
+          <t>LOC285954</t>
         </is>
       </c>
       <c r="F814">
@@ -8636,7 +8636,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>LY9;LY9</t>
+          <t>LY9</t>
         </is>
       </c>
       <c r="F815">
@@ -8656,7 +8656,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>MBP;MBP</t>
+          <t>MBP</t>
         </is>
       </c>
       <c r="F817">
@@ -8676,7 +8676,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>MKLN1;MKLN1</t>
+          <t>MKLN1</t>
         </is>
       </c>
       <c r="F819">
@@ -8686,7 +8686,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>MRPL35;MRPL35</t>
+          <t>MRPL35</t>
         </is>
       </c>
       <c r="F820">
@@ -8696,7 +8696,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>MTFR1;MTFR1</t>
+          <t>MTFR1</t>
         </is>
       </c>
       <c r="F821">
@@ -8736,7 +8736,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>MYO18A;MYO18A</t>
+          <t>MYO18A</t>
         </is>
       </c>
       <c r="F825">
@@ -8756,7 +8756,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>NAPEPLD;NAPEPLD</t>
+          <t>NAPEPLD</t>
         </is>
       </c>
       <c r="F827">
@@ -8766,7 +8766,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>NCOA7;NCOA7</t>
+          <t>NCOA7</t>
         </is>
       </c>
       <c r="F828">
@@ -8776,7 +8776,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>NF1;EVI2B;NF1</t>
+          <t>NF1</t>
         </is>
       </c>
       <c r="F829">
@@ -8786,7 +8786,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>NFATC3;NFATC3;NFATC3;NFATC3</t>
+          <t>NFATC3</t>
         </is>
       </c>
       <c r="F830">
@@ -8796,7 +8796,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>NPTN;NPTN;NPTN;NPTN</t>
+          <t>NPTN</t>
         </is>
       </c>
       <c r="F831">
@@ -8806,7 +8806,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>NRD1;NRD1</t>
+          <t>NRD1</t>
         </is>
       </c>
       <c r="F832">
@@ -8816,7 +8816,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>NRG2;NRG2;NRG2;NRG2</t>
+          <t>NRG2</t>
         </is>
       </c>
       <c r="F833">
@@ -8826,7 +8826,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>NUP98;NUP98;NUP98;NUP98</t>
+          <t>NUP98</t>
         </is>
       </c>
       <c r="F834">
@@ -8866,7 +8866,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>PAICS;PAICS;PAICS</t>
+          <t>PAICS</t>
         </is>
       </c>
       <c r="F838">
@@ -8876,7 +8876,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>PBRM1;PBRM1;PBRM1</t>
+          <t>PBRM1</t>
         </is>
       </c>
       <c r="F839">
@@ -8886,7 +8886,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>PDE4D;PDE4D;PDE4D</t>
+          <t>PDE4D</t>
         </is>
       </c>
       <c r="F840">
@@ -8896,7 +8896,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>PDLIM3;PDLIM3</t>
+          <t>PDLIM3</t>
         </is>
       </c>
       <c r="F841">
@@ -8906,7 +8906,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>PDLIM5;PDLIM5;PDLIM5;PDLIM5;PDLIM5</t>
+          <t>PDLIM5</t>
         </is>
       </c>
       <c r="F842">
@@ -8926,7 +8926,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>PFKM;PFKM;PFKM;PFKM;PFKM</t>
+          <t>PFKM</t>
         </is>
       </c>
       <c r="F844">
@@ -8936,7 +8936,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>PHF12;PHF12</t>
+          <t>PHF12</t>
         </is>
       </c>
       <c r="F845">
@@ -8946,7 +8946,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>PHLDB2;PLCXD2</t>
+          <t>PHLDB2</t>
         </is>
       </c>
       <c r="F846">
@@ -8976,7 +8976,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>PIK3R1;PIK3R1;PIK3R1</t>
+          <t>PIK3R1</t>
         </is>
       </c>
       <c r="F849">
@@ -9006,7 +9006,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>PPAP2A;PPAP2A</t>
+          <t>PPAP2A</t>
         </is>
       </c>
       <c r="F852">
@@ -9016,7 +9016,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>PPIL6;PPIL6;SMPD2</t>
+          <t>PPIL6</t>
         </is>
       </c>
       <c r="F853">
@@ -9036,7 +9036,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>PRKD2;PRKD2;PRKD2;PRKD2</t>
+          <t>PRKD2</t>
         </is>
       </c>
       <c r="F855">
@@ -9046,7 +9046,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>PSMB8;PSMB8;TAP1</t>
+          <t>PSMB8</t>
         </is>
       </c>
       <c r="F856">
@@ -9096,7 +9096,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>RBMS1;RBMS1</t>
+          <t>RBMS1</t>
         </is>
       </c>
       <c r="F861">
@@ -9106,7 +9106,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>RERE;RERE</t>
+          <t>RERE</t>
         </is>
       </c>
       <c r="F862">
@@ -9136,7 +9136,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>SAPS3;SAPS3;SAPS3;SAPS3;SAPS3;SAPS3</t>
+          <t>SAPS3</t>
         </is>
       </c>
       <c r="F865">
@@ -9146,7 +9146,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>SCG5;SCG5</t>
+          <t>SCG5</t>
         </is>
       </c>
       <c r="F866">
@@ -9156,7 +9156,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>SCYL3;SCYL3</t>
+          <t>SCYL3</t>
         </is>
       </c>
       <c r="F867">
@@ -9216,7 +9216,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>SLC22A18AS;SLC22A18</t>
+          <t>SLC22A18AS</t>
         </is>
       </c>
       <c r="F873">
@@ -9236,7 +9236,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>SLC27A2;SLC27A2</t>
+          <t>SLC27A2</t>
         </is>
       </c>
       <c r="F875">
@@ -9266,7 +9266,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>SMAD2;SMAD2;SMAD2</t>
+          <t>SMAD2</t>
         </is>
       </c>
       <c r="F878">
@@ -9296,7 +9296,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>SORBS2;SORBS2;SORBS2;SORBS2;SORBS2;SORBS2</t>
+          <t>SORBS2</t>
         </is>
       </c>
       <c r="F881">
@@ -9326,7 +9326,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>SREBF1;SREBF1</t>
+          <t>SREBF1</t>
         </is>
       </c>
       <c r="F884">
@@ -9336,7 +9336,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>SRGAP2;SRGAP2;SRGAP2</t>
+          <t>SRGAP2</t>
         </is>
       </c>
       <c r="F885">
@@ -9346,7 +9346,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>SSBP3;SSBP3;SSBP3</t>
+          <t>SSBP3</t>
         </is>
       </c>
       <c r="F886">
@@ -9366,7 +9366,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>STK24;STK24</t>
+          <t>STK24</t>
         </is>
       </c>
       <c r="F888">
@@ -9386,7 +9386,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>STX19;ARL13B;STX19;ARL13B</t>
+          <t>STX19</t>
         </is>
       </c>
       <c r="F890">
@@ -9406,7 +9406,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>SYNE2;SYNE2</t>
+          <t>SYNE2</t>
         </is>
       </c>
       <c r="F892">
@@ -9416,7 +9416,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>TBCD;ZNF750</t>
+          <t>TBCD</t>
         </is>
       </c>
       <c r="F893">
@@ -9456,7 +9456,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>TGIF1;TGIF1;TGIF1;TGIF1;TGIF1;TGIF1;TGIF1;TGIF1</t>
+          <t>TGIF1</t>
         </is>
       </c>
       <c r="F897">
@@ -9516,7 +9516,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>TXNRD1;TXNRD1;TXNRD1;TXNRD1;TXNRD1</t>
+          <t>TXNRD1</t>
         </is>
       </c>
       <c r="F903">
@@ -9546,7 +9546,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>UPF2;UPF2</t>
+          <t>UPF2</t>
         </is>
       </c>
       <c r="F906">
@@ -9596,7 +9596,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>VDR;VDR</t>
+          <t>VDR</t>
         </is>
       </c>
       <c r="F911">
@@ -9626,7 +9626,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>VWA1;VWA1</t>
+          <t>VWA1</t>
         </is>
       </c>
       <c r="F914">
@@ -9636,7 +9636,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>WAC;WAC;WAC</t>
+          <t>WAC</t>
         </is>
       </c>
       <c r="F915">
@@ -9646,7 +9646,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>WDR25;WDR25</t>
+          <t>WDR25</t>
         </is>
       </c>
       <c r="F916">
@@ -9666,7 +9666,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>WIPF1;WIPF1</t>
+          <t>WIPF1</t>
         </is>
       </c>
       <c r="F918">
@@ -9696,7 +9696,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>ZFP91;ZFP91-CNTF</t>
+          <t>ZFP91</t>
         </is>
       </c>
       <c r="F921">
@@ -9726,7 +9726,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>ZNF507;ZNF507</t>
+          <t>ZNF507</t>
         </is>
       </c>
       <c r="F924">
@@ -9736,7 +9736,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>ZNF652;ZNF652</t>
+          <t>ZNF652</t>
         </is>
       </c>
       <c r="F925">
@@ -9746,7 +9746,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>ZNHIT6;ZNHIT6</t>
+          <t>ZNHIT6</t>
         </is>
       </c>
       <c r="F926">
